--- a/upload/EmpUp Employee Credentials.xlsx
+++ b/upload/EmpUp Employee Credentials.xlsx
@@ -402,7 +402,7 @@
         <v>samridhikots@gmail.com</v>
       </c>
       <c r="B2" t="str">
-        <v>emp-vrj57X-0</v>
+        <v>emp-c2G9AE-0</v>
       </c>
       <c r="C2" t="str">
         <v>Samridhi Kotnala</v>
@@ -419,7 +419,7 @@
         <v>rishidholkheria2001@gmail.com</v>
       </c>
       <c r="B3" t="str">
-        <v>emp-vrj57X-1</v>
+        <v>emp-c2G9AE-1</v>
       </c>
       <c r="C3" t="str">
         <v>Rishi Dholkheria</v>
@@ -436,7 +436,7 @@
         <v>omgupta1608@gmail.com</v>
       </c>
       <c r="B4" t="str">
-        <v>emp-vrj57X-2</v>
+        <v>emp-c2G9AE-2</v>
       </c>
       <c r="C4" t="str">
         <v>Om Gupta</v>
@@ -453,7 +453,7 @@
         <v>sahilchalia20@gmail.com</v>
       </c>
       <c r="B5" t="str">
-        <v>emp-vrj57X-3</v>
+        <v>emp-c2G9AE-3</v>
       </c>
       <c r="C5" t="str">
         <v>Sahil Chalia</v>
@@ -470,7 +470,7 @@
         <v>riddhisahana45@gmail.com</v>
       </c>
       <c r="B6" t="str">
-        <v>emp-vrj57X-4</v>
+        <v>emp-c2G9AE-4</v>
       </c>
       <c r="C6" t="str">
         <v>Riddhi Sundar Sahana</v>
@@ -487,7 +487,7 @@
         <v>samridhikotnala14@gmail.com</v>
       </c>
       <c r="B7" t="str">
-        <v>emp-vrj57X-5</v>
+        <v>emp-c2G9AE-5</v>
       </c>
       <c r="C7" t="str">
         <v>Samridhi Kotnala</v>
